--- a/resources/Excel/Voyage.xlsx
+++ b/resources/Excel/Voyage.xlsx
@@ -12,6 +12,30 @@
   </sheets>
   <calcPr calcId="125725"/>
 </workbook>
+</file>
+
+<file path=xl/comments1.xml><?xml version="1.0" encoding="utf-8"?>
+<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <authors>
+    <author>Auteur</author>
+  </authors>
+  <commentList>
+    <comment ref="F1" authorId="0">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t>En bpm/b</t>
+        </r>
+      </text>
+    </comment>
+  </commentList>
+</comments>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
@@ -71,7 +95,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <fonts count="2">
+  <fonts count="4">
     <font>
       <sz val="11"/>
       <name val="Calibri"/>
@@ -85,6 +109,20 @@
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="9"/>
+      <color indexed="81"/>
+      <name val="Tahoma"/>
+      <family val="2"/>
     </font>
   </fonts>
   <fills count="4">
@@ -116,12 +154,13 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="1">
+  <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="9" fontId="2" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="7">
+  <cellXfs count="8">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyAlignment="1"/>
@@ -129,14 +168,13 @@
     <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1"/>
     <xf numFmtId="45" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1" applyAlignment="1"/>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1"/>
   </cellXfs>
-  <cellStyles count="1">
+  <cellStyles count="2">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
+    <cellStyle name="Pourcentage" xfId="1" builtinId="5"/>
   </cellStyles>
-  <dxfs count="4">
-    <dxf>
-      <numFmt numFmtId="28" formatCode="mm:ss"/>
-    </dxf>
+  <dxfs count="3">
     <dxf>
       <font>
         <b/>
@@ -159,7 +197,7 @@
       <numFmt numFmtId="2" formatCode="0.00"/>
     </dxf>
     <dxf>
-      <numFmt numFmtId="2" formatCode="0.00"/>
+      <numFmt numFmtId="28" formatCode="mm:ss"/>
     </dxf>
   </dxfs>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
@@ -848,25 +886,25 @@
           </c:val>
         </c:ser>
         <c:marker val="1"/>
-        <c:axId val="113688960"/>
-        <c:axId val="134802816"/>
+        <c:axId val="134802048"/>
+        <c:axId val="135614848"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="113688960"/>
+        <c:axId val="134802048"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
         <c:axPos val="b"/>
         <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="134802816"/>
+        <c:crossAx val="135614848"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
         <c:lblOffset val="100"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="134802816"/>
+        <c:axId val="135614848"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -874,7 +912,7 @@
         <c:majorGridlines/>
         <c:numFmt formatCode="0.00" sourceLinked="1"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="113688960"/>
+        <c:crossAx val="134802048"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -935,14 +973,14 @@
   <tableColumns count="8">
     <tableColumn id="1" name="BeatTime" totalsRowLabel="Total"/>
     <tableColumn id="2" name="SecTime"/>
-    <tableColumn id="8" name="HMS" dataDxfId="0">
+    <tableColumn id="8" name="HMS" dataDxfId="2">
       <calculatedColumnFormula>Tableau1[[#This Row],[SecTime]]/3600/24</calculatedColumnFormula>
     </tableColumn>
     <tableColumn id="3" name="BeatDuration"/>
-    <tableColumn id="4" name="Tempo" totalsRowFunction="custom" dataDxfId="3" totalsRowDxfId="1">
+    <tableColumn id="4" name="Tempo" totalsRowFunction="custom" dataDxfId="1" totalsRowDxfId="0">
       <totalsRowFormula>SUMPRODUCT([Tempo],[BeatDuration])/SUM([BeatDuration])</totalsRowFormula>
     </tableColumn>
-    <tableColumn id="5" name="Accélération" totalsRowFunction="stdDev" dataDxfId="2"/>
+    <tableColumn id="5" name="Accélération" totalsRowFunction="stdDev" dataCellStyle="Pourcentage"/>
     <tableColumn id="6" name="Section"/>
     <tableColumn id="7" name="BeatTimeInSection"/>
   </tableColumns>
@@ -1240,8 +1278,8 @@
   </sheetPr>
   <dimension ref="A1:H108"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A28" workbookViewId="0">
-      <selection activeCell="P45" sqref="P45"/>
+    <sheetView tabSelected="1" topLeftCell="A7" workbookViewId="0">
+      <selection activeCell="F89" sqref="F89"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15"/>
@@ -1298,7 +1336,7 @@
       <c r="E2" s="4">
         <v>68.675543097407143</v>
       </c>
-      <c r="F2" s="4"/>
+      <c r="F2" s="7"/>
       <c r="G2" s="6" t="s">
         <v>7</v>
       </c>
@@ -1323,7 +1361,7 @@
       <c r="E3" s="4">
         <v>69.338259861244865</v>
       </c>
-      <c r="F3" s="4">
+      <c r="F3" s="7">
         <v>0.1656791909594304</v>
       </c>
       <c r="G3" s="6" t="s">
@@ -1350,7 +1388,7 @@
       <c r="E4" s="4">
         <v>68.381369565638764</v>
       </c>
-      <c r="F4" s="4">
+      <c r="F4" s="7">
         <v>-0.23922257390152524</v>
       </c>
       <c r="G4" s="6" t="s">
@@ -1377,7 +1415,7 @@
       <c r="E5" s="4">
         <v>67.440645350393169</v>
       </c>
-      <c r="F5" s="4">
+      <c r="F5" s="7">
         <v>-0.23518105381139875</v>
       </c>
       <c r="G5" s="6" t="s">
@@ -1404,7 +1442,7 @@
       <c r="E6" s="4">
         <v>68.310534111701671</v>
       </c>
-      <c r="F6" s="4">
+      <c r="F6" s="7">
         <v>0.2174721903271255</v>
       </c>
       <c r="G6" s="6" t="s">
@@ -1428,7 +1466,7 @@
       <c r="E7" s="4">
         <v>69.25432512366838</v>
       </c>
-      <c r="F7" s="4">
+      <c r="F7" s="7">
         <v>0.11797387649583868</v>
       </c>
       <c r="G7" s="6" t="s">
@@ -1455,7 +1493,7 @@
       <c r="E8" s="4">
         <v>68.345161144510229</v>
       </c>
-      <c r="F8" s="4">
+      <c r="F8" s="7">
         <v>-0.22729099478953785</v>
       </c>
       <c r="G8" s="6" t="s">
@@ -1482,7 +1520,7 @@
       <c r="E9" s="4">
         <v>67.457408906366553</v>
       </c>
-      <c r="F9" s="4">
+      <c r="F9" s="7">
         <v>-0.22193805953591905</v>
       </c>
       <c r="G9" s="6" t="s">
@@ -1506,7 +1544,7 @@
       <c r="E10" s="4">
         <v>68.257008532126065</v>
       </c>
-      <c r="F10" s="4">
+      <c r="F10" s="7">
         <v>0.19989990643987809</v>
       </c>
       <c r="G10" s="6" t="s">
@@ -1533,7 +1571,7 @@
       <c r="E11" s="4">
         <v>69.470699432892204</v>
       </c>
-      <c r="F11" s="4">
+      <c r="F11" s="7">
         <v>0.10114090839717822</v>
       </c>
       <c r="G11" s="6" t="s">
@@ -1557,7 +1595,7 @@
       <c r="E12" s="4">
         <v>68.586981174869635</v>
       </c>
-      <c r="F12" s="4">
+      <c r="F12" s="7">
         <v>-0.22092956450564216</v>
       </c>
       <c r="G12" s="6" t="s">
@@ -1584,7 +1622,7 @@
       <c r="E13" s="4">
         <v>67.955928808074574</v>
       </c>
-      <c r="F13" s="4">
+      <c r="F13" s="7">
         <v>-0.15776309169876512</v>
       </c>
       <c r="G13" s="6" t="s">
@@ -1611,7 +1649,7 @@
       <c r="E14" s="4">
         <v>68.31957345451508</v>
       </c>
-      <c r="F14" s="4">
+      <c r="F14" s="7">
         <v>3.0303720536708784E-2</v>
       </c>
       <c r="G14" s="6" t="s">
@@ -1638,7 +1676,7 @@
       <c r="E15" s="4">
         <v>67.64452113891285</v>
       </c>
-      <c r="F15" s="4">
+      <c r="F15" s="7">
         <v>-0.16876307890055742</v>
       </c>
       <c r="G15" s="6" t="s">
@@ -1665,7 +1703,7 @@
       <c r="E16" s="4">
         <v>68.729504204681831</v>
       </c>
-      <c r="F16" s="4">
+      <c r="F16" s="7">
         <v>0.27124576644224518</v>
       </c>
       <c r="G16" s="6" t="s">
@@ -1692,7 +1730,7 @@
       <c r="E17" s="4">
         <v>69.217186580341462</v>
       </c>
-      <c r="F17" s="4">
+      <c r="F17" s="7">
         <v>0.12192059391490773</v>
       </c>
       <c r="G17" t="s">
@@ -1716,7 +1754,7 @@
       <c r="E18" s="4">
         <v>68.678216858088305</v>
       </c>
-      <c r="F18" s="4">
+      <c r="F18" s="7">
         <v>-0.13474243056328916</v>
       </c>
       <c r="G18" t="s">
@@ -1743,7 +1781,7 @@
       <c r="E19" s="4">
         <v>69.191394222283307</v>
       </c>
-      <c r="F19" s="4">
+      <c r="F19" s="7">
         <v>0.12829434104875048</v>
       </c>
       <c r="G19" s="6" t="s">
@@ -1767,7 +1805,7 @@
       <c r="E20" s="4">
         <v>69.552417314503785</v>
       </c>
-      <c r="F20" s="4">
+      <c r="F20" s="7">
         <v>4.5127886527559724E-2</v>
       </c>
       <c r="G20" s="6" t="s">
@@ -1794,7 +1832,7 @@
       <c r="E21" s="4">
         <v>69.781011310404821</v>
       </c>
-      <c r="F21" s="4">
+      <c r="F21" s="7">
         <v>5.7148498975259088E-2</v>
       </c>
       <c r="G21" s="6" t="s">
@@ -1821,7 +1859,7 @@
       <c r="E22" s="4">
         <v>68.813736740644941</v>
       </c>
-      <c r="F22" s="4">
+      <c r="F22" s="7">
         <v>-0.12090932121998499</v>
       </c>
       <c r="G22" s="6" t="s">
@@ -1848,7 +1886,7 @@
       <c r="E23" s="4">
         <v>69.043347793470161</v>
       </c>
-      <c r="F23" s="4">
+      <c r="F23" s="7">
         <v>2.8701381603152498E-2</v>
       </c>
       <c r="G23" s="6" t="s">
@@ -1875,7 +1913,7 @@
       <c r="E24" s="4">
         <v>68.653937839126385</v>
       </c>
-      <c r="F24" s="4">
+      <c r="F24" s="7">
         <v>-9.735248858594403E-2</v>
       </c>
       <c r="G24" s="6" t="s">
@@ -1899,7 +1937,7 @@
       <c r="E25" s="4">
         <v>67.739117356228704</v>
       </c>
-      <c r="F25" s="4">
+      <c r="F25" s="7">
         <v>-0.1143525603622102</v>
       </c>
       <c r="G25" s="6" t="s">
@@ -1926,7 +1964,7 @@
       <c r="E26" s="4">
         <v>68.581203670105182</v>
       </c>
-      <c r="F26" s="4">
+      <c r="F26" s="7">
         <v>0.10526078923455984</v>
       </c>
       <c r="G26" s="6" t="s">
@@ -1950,7 +1988,7 @@
       <c r="E27" s="4">
         <v>68.815750120284633</v>
       </c>
-      <c r="F27" s="4">
+      <c r="F27" s="7">
         <v>5.8636612544862743E-2</v>
       </c>
       <c r="G27" s="6" t="s">
@@ -1977,7 +2015,7 @@
       <c r="E28" s="4">
         <v>69.365525648335534</v>
       </c>
-      <c r="F28" s="4">
+      <c r="F28" s="7">
         <v>0.13744388201272528</v>
       </c>
       <c r="G28" s="6" t="s">
@@ -2004,7 +2042,7 @@
       <c r="E29" s="4">
         <v>68.761876918579333</v>
       </c>
-      <c r="F29" s="4">
+      <c r="F29" s="7">
         <v>-0.15091218243905047</v>
       </c>
       <c r="G29" s="2" t="s">
@@ -2028,7 +2066,7 @@
       <c r="E30" s="4">
         <v>68.961023729785239</v>
       </c>
-      <c r="F30" s="4">
+      <c r="F30" s="7">
         <v>2.4893351400738339E-2</v>
       </c>
       <c r="G30" s="2" t="s">
@@ -2055,7 +2093,7 @@
       <c r="E31" s="4">
         <v>69.370299365875283</v>
       </c>
-      <c r="F31" s="4">
+      <c r="F31" s="7">
         <v>0.10231890902251095</v>
       </c>
       <c r="G31" s="2" t="s">
@@ -2082,7 +2120,7 @@
       <c r="E32" s="4">
         <v>69.577564785232582</v>
       </c>
-      <c r="F32" s="4">
+      <c r="F32" s="7">
         <v>2.5908177419662337E-2</v>
       </c>
       <c r="G32" s="2" t="s">
@@ -2109,7 +2147,7 @@
       <c r="E33" s="4">
         <v>67.774035321388538</v>
       </c>
-      <c r="F33" s="4">
+      <c r="F33" s="7">
         <v>-0.45088236596101083</v>
       </c>
       <c r="G33" s="2" t="s">
@@ -2136,7 +2174,7 @@
       <c r="E34" s="4">
         <v>68.641248305695086</v>
       </c>
-      <c r="F34" s="4">
+      <c r="F34" s="7">
         <v>0.21680324607663692</v>
       </c>
       <c r="G34" s="2" t="s">
@@ -2163,7 +2201,7 @@
       <c r="E35" s="4">
         <v>69.4315065797242</v>
       </c>
-      <c r="F35" s="4">
+      <c r="F35" s="7">
         <v>0.19756456850727844</v>
       </c>
       <c r="G35" s="2" t="s">
@@ -2190,7 +2228,7 @@
       <c r="E36" s="4">
         <v>71.855799585864801</v>
       </c>
-      <c r="F36" s="4">
+      <c r="F36" s="7">
         <v>0.30303662576757517</v>
       </c>
       <c r="G36" s="2" t="s">
@@ -2217,7 +2255,7 @@
       <c r="E37" s="4">
         <v>70.920274996984915</v>
       </c>
-      <c r="F37" s="4">
+      <c r="F37" s="7">
         <v>-0.23388114721997155</v>
       </c>
       <c r="G37" s="2" t="s">
@@ -2244,7 +2282,7 @@
       <c r="E38" s="4">
         <v>69.480732619969714</v>
       </c>
-      <c r="F38" s="4">
+      <c r="F38" s="7">
         <v>-0.35988559425380018</v>
       </c>
       <c r="G38" s="6" t="s">
@@ -2268,7 +2306,7 @@
       <c r="E39" s="4">
         <v>70.509703078470523</v>
       </c>
-      <c r="F39" s="4">
+      <c r="F39" s="7">
         <v>0.25724261462520204</v>
       </c>
       <c r="G39" s="6" t="s">
@@ -2295,7 +2333,7 @@
       <c r="E40" s="4">
         <v>69.083005345708912</v>
       </c>
-      <c r="F40" s="4">
+      <c r="F40" s="7">
         <v>-0.3566744331904026</v>
       </c>
       <c r="G40" s="6" t="s">
@@ -2322,7 +2360,7 @@
       <c r="E41" s="4">
         <v>68.584314513254526</v>
       </c>
-      <c r="F41" s="4">
+      <c r="F41" s="7">
         <v>-0.12467270811359654</v>
       </c>
       <c r="G41" s="6" t="s">
@@ -2349,7 +2387,7 @@
       <c r="E42" s="4">
         <v>68.343837173261733</v>
       </c>
-      <c r="F42" s="4">
+      <c r="F42" s="7">
         <v>-6.0119334998198326E-2</v>
       </c>
       <c r="G42" s="6" t="s">
@@ -2373,7 +2411,7 @@
       <c r="E43" s="4">
         <v>68.074815405593611</v>
       </c>
-      <c r="F43" s="4">
+      <c r="F43" s="7">
         <v>-6.7255441917030367E-2</v>
       </c>
       <c r="G43" s="6" t="s">
@@ -2400,7 +2438,7 @@
       <c r="E44" s="4">
         <v>68.467629250116332</v>
       </c>
-      <c r="F44" s="4">
+      <c r="F44" s="7">
         <v>9.8203461130680125E-2</v>
       </c>
       <c r="G44" s="6" t="s">
@@ -2427,7 +2465,7 @@
       <c r="E45" s="4">
         <v>69.32281876117554</v>
       </c>
-      <c r="F45" s="4">
+      <c r="F45" s="7">
         <v>0.21379737776480212</v>
       </c>
       <c r="G45" s="6" t="s">
@@ -2454,7 +2492,7 @@
       <c r="E46" s="4">
         <v>69.081652633640218</v>
       </c>
-      <c r="F46" s="4">
+      <c r="F46" s="7">
         <v>-6.0291531883830629E-2</v>
       </c>
       <c r="G46" s="6" t="s">
@@ -2478,7 +2516,7 @@
       <c r="E47" s="4">
         <v>69.246169346924262</v>
       </c>
-      <c r="F47" s="4">
+      <c r="F47" s="7">
         <v>4.112917832101104E-2</v>
       </c>
       <c r="G47" s="6" t="s">
@@ -2505,7 +2543,7 @@
       <c r="E48" s="4">
         <v>68.815302692405126</v>
       </c>
-      <c r="F48" s="4">
+      <c r="F48" s="7">
         <v>-3.590555454326131E-2</v>
       </c>
       <c r="G48" s="6" t="s">
@@ -2529,7 +2567,7 @@
       <c r="E49" s="4">
         <v>69.968070126728236</v>
       </c>
-      <c r="F49" s="4">
+      <c r="F49" s="7">
         <v>0.28819185858077745</v>
       </c>
       <c r="G49" s="6" t="s">
@@ -2556,7 +2594,7 @@
       <c r="E50" s="4">
         <v>68.922852510044265</v>
       </c>
-      <c r="F50" s="4">
+      <c r="F50" s="7">
         <v>-0.26130440417099265</v>
       </c>
       <c r="G50" s="6" t="s">
@@ -2583,7 +2621,7 @@
       <c r="E51" s="4">
         <v>70.063947253445662</v>
       </c>
-      <c r="F51" s="4">
+      <c r="F51" s="7">
         <v>0.28527368585034907</v>
       </c>
       <c r="G51" s="6" t="s">
@@ -2610,7 +2648,7 @@
       <c r="E52" s="4">
         <v>70.439782770738006</v>
       </c>
-      <c r="F52" s="4">
+      <c r="F52" s="7">
         <v>9.3958879323086109E-2</v>
       </c>
       <c r="G52" t="s">
@@ -2634,7 +2672,7 @@
       <c r="E53" s="4">
         <v>71.079830493677051</v>
       </c>
-      <c r="F53" s="4">
+      <c r="F53" s="7">
         <v>0.16001193073476117</v>
       </c>
       <c r="G53" t="s">
@@ -2661,7 +2699,7 @@
       <c r="E54" s="4">
         <v>69.55150320354889</v>
       </c>
-      <c r="F54" s="4">
+      <c r="F54" s="7">
         <v>-0.38208182253204015</v>
       </c>
       <c r="G54" s="6" t="s">
@@ -2685,7 +2723,7 @@
       <c r="E55" s="4">
         <v>70.063483447303284</v>
       </c>
-      <c r="F55" s="4">
+      <c r="F55" s="7">
         <v>0.12799506093859847</v>
       </c>
       <c r="G55" s="6" t="s">
@@ -2712,7 +2750,7 @@
       <c r="E56" s="4">
         <v>70.600948550159103</v>
       </c>
-      <c r="F56" s="4">
+      <c r="F56" s="7">
         <v>0.13436627571395476</v>
       </c>
       <c r="G56" s="6" t="s">
@@ -2739,7 +2777,7 @@
       <c r="E57" s="4">
         <v>69.462948500022861</v>
       </c>
-      <c r="F57" s="4">
+      <c r="F57" s="7">
         <v>-0.14225000626703022</v>
       </c>
       <c r="G57" s="6" t="s">
@@ -2763,7 +2801,7 @@
       <c r="E58" s="4">
         <v>69.73204814831918</v>
       </c>
-      <c r="F58" s="4">
+      <c r="F58" s="7">
         <v>6.7274912074079651E-2</v>
       </c>
       <c r="G58" s="6" t="s">
@@ -2790,7 +2828,7 @@
       <c r="E59" s="4">
         <v>68.66841408662674</v>
       </c>
-      <c r="F59" s="4">
+      <c r="F59" s="7">
         <v>-0.26590851542311</v>
       </c>
       <c r="G59" s="6" t="s">
@@ -2817,7 +2855,7 @@
       <c r="E60" s="4">
         <v>68.12652068126593</v>
       </c>
-      <c r="F60" s="4">
+      <c r="F60" s="7">
         <v>-0.13547335134020244</v>
       </c>
       <c r="G60" s="6" t="s">
@@ -2844,7 +2882,7 @@
       <c r="E61" s="4">
         <v>69.135802469135442</v>
       </c>
-      <c r="F61" s="4">
+      <c r="F61" s="7">
         <v>0.25232044696737788</v>
       </c>
       <c r="G61" s="6" t="s">
@@ -2868,7 +2906,7 @@
       <c r="E62" s="4">
         <v>69.566817732177057</v>
       </c>
-      <c r="F62" s="4">
+      <c r="F62" s="7">
         <v>0.10775381576040388</v>
       </c>
       <c r="G62" s="6" t="s">
@@ -2895,7 +2933,7 @@
       <c r="E63" s="4">
         <v>68.67754839839948</v>
       </c>
-      <c r="F63" s="4">
+      <c r="F63" s="7">
         <v>-0.1111586667221971</v>
       </c>
       <c r="G63" s="6" t="s">
@@ -2922,7 +2960,7 @@
       <c r="E64" s="4">
         <v>68.289598482453243</v>
       </c>
-      <c r="F64" s="4">
+      <c r="F64" s="7">
         <v>-4.849373949327962E-2</v>
       </c>
       <c r="G64" s="6" t="s">
@@ -2949,7 +2987,7 @@
       <c r="E65" s="4">
         <v>68.498204057859368</v>
       </c>
-      <c r="F65" s="4">
+      <c r="F65" s="7">
         <v>5.2151393851531225E-2</v>
       </c>
       <c r="G65" s="6" t="s">
@@ -2976,7 +3014,7 @@
       <c r="E66" s="4">
         <v>69.848015891347558</v>
       </c>
-      <c r="F66" s="4">
+      <c r="F66" s="7">
         <v>0.33745295837204736</v>
       </c>
       <c r="G66" s="6" t="s">
@@ -3003,7 +3041,7 @@
       <c r="E67" s="4">
         <v>70.266286920670765</v>
       </c>
-      <c r="F67" s="4">
+      <c r="F67" s="7">
         <v>0.10456775733080192</v>
       </c>
       <c r="G67" s="2" t="s">
@@ -3027,7 +3065,7 @@
       <c r="E68" s="4">
         <v>69.494418910046903</v>
       </c>
-      <c r="F68" s="4">
+      <c r="F68" s="7">
         <v>-0.19296700265596556</v>
       </c>
       <c r="G68" s="2" t="s">
@@ -3054,7 +3092,7 @@
       <c r="E69" s="4">
         <v>70.138003015191913</v>
       </c>
-      <c r="F69" s="4">
+      <c r="F69" s="7">
         <v>0.16089602628625244</v>
       </c>
       <c r="G69" s="2" t="s">
@@ -3081,7 +3119,7 @@
       <c r="E70" s="4">
         <v>69.543734230444898</v>
       </c>
-      <c r="F70" s="4">
+      <c r="F70" s="7">
         <v>-7.4283598093376924E-2</v>
       </c>
       <c r="G70" s="2" t="s">
@@ -3108,7 +3146,7 @@
       <c r="E71" s="4">
         <v>69.86692015209114</v>
       </c>
-      <c r="F71" s="4">
+      <c r="F71" s="7">
         <v>8.0796480411560623E-2</v>
       </c>
       <c r="G71" s="2" t="s">
@@ -3135,7 +3173,7 @@
       <c r="E72" s="4">
         <v>70.082968593772208</v>
       </c>
-      <c r="F72" s="4">
+      <c r="F72" s="7">
         <v>5.4012110420266879E-2</v>
       </c>
       <c r="G72" s="2" t="s">
@@ -3162,7 +3200,7 @@
       <c r="E73" s="4">
         <v>70.781782919815612</v>
       </c>
-      <c r="F73" s="4">
+      <c r="F73" s="7">
         <v>0.17470358151085108</v>
       </c>
       <c r="G73" s="2" t="s">
@@ -3189,7 +3227,7 @@
       <c r="E74" s="4">
         <v>70.011112875059581</v>
       </c>
-      <c r="F74" s="4">
+      <c r="F74" s="7">
         <v>-0.19266751118900771</v>
       </c>
       <c r="G74" s="2" t="s">
@@ -3216,7 +3254,7 @@
       <c r="E75" s="4">
         <v>70.923601664532868</v>
       </c>
-      <c r="F75" s="4">
+      <c r="F75" s="7">
         <v>0.22812219736832162</v>
       </c>
       <c r="G75" s="2" t="s">
@@ -3243,7 +3281,7 @@
       <c r="E76" s="4">
         <v>72.50655943222452</v>
       </c>
-      <c r="F76" s="4">
+      <c r="F76" s="7">
         <v>0.39573944192291322</v>
       </c>
       <c r="G76" s="2" t="s">
@@ -3270,7 +3308,7 @@
       <c r="E77" s="4">
         <v>71.785132935431577</v>
       </c>
-      <c r="F77" s="4">
+      <c r="F77" s="7">
         <v>-0.18035662419823595</v>
       </c>
       <c r="G77" s="2" t="s">
@@ -3297,7 +3335,7 @@
       <c r="E78" s="4">
         <v>70.79740730583174</v>
       </c>
-      <c r="F78" s="4">
+      <c r="F78" s="7">
         <v>-0.24693140739995911</v>
       </c>
       <c r="G78" t="s">
@@ -3321,7 +3359,7 @@
       <c r="E79" s="4">
         <v>70.436735712503278</v>
       </c>
-      <c r="F79" s="4">
+      <c r="F79" s="7">
         <v>-9.016789833211547E-2</v>
       </c>
       <c r="G79" t="s">
@@ -3348,7 +3386,7 @@
       <c r="E80" s="4">
         <v>70.201038688837301</v>
       </c>
-      <c r="F80" s="4">
+      <c r="F80" s="7">
         <v>-2.9462127958247208E-2</v>
       </c>
       <c r="G80" t="s">
@@ -3375,7 +3413,7 @@
       <c r="E81" s="4">
         <v>70.928829915562034</v>
       </c>
-      <c r="F81" s="4">
+      <c r="F81" s="7">
         <v>9.0973903340591633E-2</v>
       </c>
       <c r="G81" t="s">
@@ -3402,7 +3440,7 @@
       <c r="E82" s="4">
         <v>71.287608861108509</v>
       </c>
-      <c r="F82" s="4">
+      <c r="F82" s="7">
         <v>8.9694736386618956E-2</v>
       </c>
       <c r="G82" t="s">
@@ -3429,7 +3467,7 @@
       <c r="E83" s="4">
         <v>71.740854464485793</v>
       </c>
-      <c r="F83" s="4">
+      <c r="F83" s="7">
         <v>0.11331140084432079</v>
       </c>
       <c r="G83" t="s">
@@ -3456,7 +3494,7 @@
       <c r="E84" s="4">
         <v>70.263721308482644</v>
       </c>
-      <c r="F84" s="4">
+      <c r="F84" s="7">
         <v>-0.36928328900078711</v>
       </c>
       <c r="G84" t="s">
@@ -3483,7 +3521,7 @@
       <c r="E85" s="4">
         <v>70.7070707070704</v>
       </c>
-      <c r="F85" s="4">
+      <c r="F85" s="7">
         <v>5.5418674823469516E-2</v>
       </c>
       <c r="G85" t="s">
@@ -3510,7 +3548,7 @@
       <c r="E86" s="4">
         <v>72.221084953940988</v>
       </c>
-      <c r="F86" s="4">
+      <c r="F86" s="7">
         <v>0.37850356171764687</v>
       </c>
       <c r="G86" t="s">
@@ -3537,7 +3575,7 @@
       <c r="E87" s="4">
         <v>70.390593305443915</v>
       </c>
-      <c r="F87" s="4">
+      <c r="F87" s="7">
         <v>-0.45762291212426831</v>
       </c>
       <c r="G87" t="s">
@@ -3564,7 +3602,7 @@
       <c r="E88" s="4">
         <v>71.432428054640908</v>
       </c>
-      <c r="F88" s="4">
+      <c r="F88" s="7">
         <v>0.26045868729924848</v>
       </c>
       <c r="G88" t="s">
@@ -3591,7 +3629,7 @@
       <c r="E89" s="4">
         <v>68.004394841843478</v>
       </c>
-      <c r="F89" s="4">
+      <c r="F89" s="7">
         <v>-0.85700830319935761</v>
       </c>
       <c r="G89" t="s">
@@ -3615,7 +3653,7 @@
       <c r="E90" s="4">
         <v>70.093953094094587</v>
       </c>
-      <c r="F90" s="4">
+      <c r="F90" s="7">
         <v>0.52238956306277728</v>
       </c>
       <c r="G90" t="s">
@@ -3642,7 +3680,7 @@
       <c r="E91" s="4">
         <v>69.189132651727022</v>
       </c>
-      <c r="F91" s="4">
+      <c r="F91" s="7">
         <v>-7.5401703530630471E-2</v>
       </c>
       <c r="G91" t="s">
@@ -3669,7 +3707,7 @@
       <c r="E92" s="4">
         <v>69.631578947368183</v>
       </c>
-      <c r="F92" s="4">
+      <c r="F92" s="7">
         <v>0.11061157391029042</v>
       </c>
       <c r="G92" t="s">
@@ -3696,7 +3734,7 @@
       <c r="E93" s="4">
         <v>69.276083256971319</v>
       </c>
-      <c r="F93" s="4">
+      <c r="F93" s="7">
         <v>-8.8873922599216115E-2</v>
       </c>
       <c r="G93" t="s">
@@ -3723,7 +3761,7 @@
       <c r="E94" s="4">
         <v>70.385444098635006</v>
       </c>
-      <c r="F94" s="4">
+      <c r="F94" s="7">
         <v>0.27734021041592172</v>
       </c>
       <c r="G94" t="s">
@@ -3750,7 +3788,7 @@
       <c r="E95" s="4">
         <v>71.280407316612454</v>
       </c>
-      <c r="F95" s="4">
+      <c r="F95" s="7">
         <v>0.22374080449436207</v>
       </c>
       <c r="G95" t="s">
@@ -3777,7 +3815,7 @@
       <c r="E96" s="4">
         <v>72.225027637128832</v>
       </c>
-      <c r="F96" s="4">
+      <c r="F96" s="7">
         <v>0.23615508012909459</v>
       </c>
       <c r="G96" t="s">
@@ -3804,7 +3842,7 @@
       <c r="E97" s="4">
         <v>68.843502016391028</v>
       </c>
-      <c r="F97" s="4">
+      <c r="F97" s="7">
         <v>-0.84538140518445104</v>
       </c>
       <c r="G97" s="6" t="s">
@@ -3828,7 +3866,7 @@
       <c r="E98" s="4">
         <v>68.612324806492509</v>
       </c>
-      <c r="F98" s="4">
+      <c r="F98" s="7">
         <v>-5.7794302474629689E-2</v>
       </c>
       <c r="G98" s="6" t="s">
@@ -3855,7 +3893,7 @@
       <c r="E99" s="4">
         <v>69.937093619495968</v>
       </c>
-      <c r="F99" s="4">
+      <c r="F99" s="7">
         <v>0.33119220325086474</v>
       </c>
       <c r="G99" s="6" t="s">
@@ -3882,7 +3920,7 @@
       <c r="E100" s="4">
         <v>68.514610494698246</v>
       </c>
-      <c r="F100" s="4">
+      <c r="F100" s="7">
         <v>-0.35562078119943052</v>
       </c>
       <c r="G100" s="6" t="s">
@@ -3909,7 +3947,7 @@
       <c r="E101" s="4">
         <v>70.380763655224555</v>
       </c>
-      <c r="F101" s="4">
+      <c r="F101" s="7">
         <v>0.23326914506578866</v>
       </c>
       <c r="G101" s="6" t="s">
@@ -3936,7 +3974,7 @@
       <c r="E102" s="4">
         <v>69.325997248968648</v>
       </c>
-      <c r="F102" s="4">
+      <c r="F102" s="7">
         <v>-0.26369160156397697</v>
       </c>
       <c r="G102" s="6" t="s">
@@ -3963,7 +4001,7 @@
       <c r="E103" s="4">
         <v>69.558359621451118</v>
       </c>
-      <c r="F103" s="4">
+      <c r="F103" s="7">
         <v>5.8090593120617484E-2</v>
       </c>
       <c r="G103" s="6" t="s">
@@ -3990,7 +4028,7 @@
       <c r="E104" s="4">
         <v>69.220808099306012</v>
       </c>
-      <c r="F104" s="4">
+      <c r="F104" s="7">
         <v>-8.4387880536276327E-2</v>
       </c>
       <c r="G104" t="s">
@@ -4014,7 +4052,7 @@
       <c r="E105" s="4">
         <v>69.394632799847798</v>
       </c>
-      <c r="F105" s="4">
+      <c r="F105" s="7">
         <v>4.3456175135446529E-2</v>
       </c>
       <c r="G105" t="s">
@@ -4041,7 +4079,7 @@
       <c r="E106" s="4">
         <v>69.151160359606706</v>
       </c>
-      <c r="F106" s="4">
+      <c r="F106" s="7">
         <v>-3.043405503013652E-2</v>
       </c>
     </row>
@@ -4094,8 +4132,9 @@
   </conditionalFormatting>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" scale="47" orientation="portrait" horizontalDpi="200" verticalDpi="200" r:id="rId1"/>
+  <legacyDrawing r:id="rId2"/>
   <tableParts count="1">
-    <tablePart r:id="rId2"/>
+    <tablePart r:id="rId3"/>
   </tableParts>
 </worksheet>
 </file>